--- a/VersionRecords/Version CA Contract/定时器/新增定时器 (JB组).xlsx
+++ b/VersionRecords/Version CA Contract/定时器/新增定时器 (JB组).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>上线版本</t>
   </si>
@@ -75,57 +75,103 @@
     <t>备注</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>JB组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CompensateCATask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompensateCATask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CompensateCATask"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时执行一次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA合同认证补偿任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>LTS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JB组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>启用</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>不用填</t>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>可重复执行，如有错，需开发修复</t>
-  </si>
-  <si>
-    <t>JB组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁冰秋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CompensateCATask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompensateCATask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CompensateCATask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>半小时执行一次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA合同认证补偿任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性任务</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上快照-历史数据处理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.process.ProcessContractSnapshotNewTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessContractSnapshotNewTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.process.ProcessContractSnapshotNewTask"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线执行一次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复快照</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +266,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -359,14 +398,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -709,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,7 +759,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
@@ -793,57 +832,109 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
+      <c r="A2" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>31</v>
+      <c r="R3" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
